--- a/use-case-xlsx/tm-user-input-donau.xlsx
+++ b/use-case-xlsx/tm-user-input-donau.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Copy path from file explorer</t>
   </si>
   <si>
-    <t xml:space="preserve">Calibration variable 1 (calib_target1)</t>
+    <t xml:space="preserve">Calibration quantity 1 (calib_target1)</t>
   </si>
   <si>
     <t xml:space="preserve">VELOCITY</t>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">Primary measurement data (at least one set needed)</t>
   </si>
   <si>
-    <t xml:space="preserve">Calibration variable 2 (calib_target2)</t>
+    <t xml:space="preserve">Calibration quantity 2 (calib_target2)</t>
   </si>
   <si>
     <t xml:space="preserve">DEPTH</t>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">Optional second measurement dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">Calibration variable 3 (calib_target3)</t>
+    <t xml:space="preserve">Calibration quantity 3 (calib_target3)</t>
   </si>
   <si>
     <t xml:space="preserve">NONE</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">Optional third measurement dataset (computationally very demanding!)</t>
   </si>
   <si>
-    <t xml:space="preserve">Calibration variable 4 (calib_target4)</t>
+    <t xml:space="preserve">Calibration quantity 4 (calib_target4)</t>
   </si>
   <si>
     <t xml:space="preserve">Optional fourth measurement dataset (computationally very demanding!)</t>
@@ -219,95 +219,10 @@
     <t xml:space="preserve">DEFINE PRIOR DISTRIBUTIONS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">up to four direct calibration parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (fewer is possible) from the below lists and define ranges of possible values for these parameters.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Indirect calibration parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> will be varied within a multiplier range (e.g. 0.8, 1.7 will vary the parameter in a range between 0.8 to 1.7 times the initial values).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Recalculation parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> are automatically detected as a function of available routines (read more at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://hybayescal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.readthedocs.io &gt; Usage).
+    <t xml:space="preserve">Select up to four direct calibration parameters (fewer is possible) from the below lists and define ranges of possible values for these parameters.
+Indirect calibration parameters will be varied within a multiplier range (e.g. 0.8, 1.7 will vary the parameter in a range between 0.8 to 1.7 times the initial values).
+Recalculation parameters are automatically detected as a function of available routines (read more at https://hybayescal.readthedocs.io &gt; Usage).
 The value ranges will be subdivided into the above-defined number of Monte Carlo samples (mc_samples) for building surrogate model predictions.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">SCALAR CALIBRATION PARAMETERS</t>
@@ -1001,7 +916,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1071,19 +986,6 @@
       <i val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1366,11 +1268,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1378,7 +1280,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1386,7 +1288,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1398,15 +1300,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1632,10 +1534,10 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.43"/>
@@ -2005,7 +1907,7 @@
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">VLOOKUP(A32,ignore!$A$8:$C$94,3,0)</f>
-        <v> Roughness coefficient depending on LAW OF BOTTOM FRICTION</v>
+        <v>Roughness coefficient depending on LAW OF BOTTOM FRICTION</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,7 +2308,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="https://hybayescal"/>
+    <hyperlink ref="A29" r:id="rId1" display="Select up to four direct calibration parameters (fewer is possible) from the below lists and define ranges of possible values for these parameters.&#10;Indirect calibration parameters will be varied within a multiplier range (e.g. 0.8, 1.7 will vary the parameter in a range between 0.8 to 1.7 times the initial values).&#10;Recalculation parameters are automatically detected as a function of available routines (read more at https://hybayescal.readthedocs.io &gt; Usage).&#10;The value ranges will be subdivided into the above-defined number of Monte Carlo samples (mc_samples) for building surrogate model predictions."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2429,11 +2331,11 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.15"/>
